--- a/Bakan_Listesi.xlsx
+++ b/Bakan_Listesi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanercokyasar/Desktop/TBB/YLSYDer_programlari/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak10268\Documents\GitHub\YLSY_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9B44D9-51F9-A047-B69D-3052DDC625A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927AB206-BA04-46CE-A344-D3B18327CE3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MVliste_email_komisyon" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>Isim</t>
   </si>
@@ -45,9 +45,6 @@
     <t>AK Parti</t>
   </si>
   <si>
-    <t>CHP</t>
-  </si>
-  <si>
     <t>ADANA</t>
   </si>
   <si>
@@ -76,13 +73,136 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Yılmaz</t>
+  </si>
+  <si>
+    <t>Tunc</t>
+  </si>
+  <si>
+    <t>yilmaz.tunc@tbmm.gov.tr</t>
+  </si>
+  <si>
+    <t>CEVDET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YILMAZ </t>
+  </si>
+  <si>
+    <t>cevdet.yilmaz@tbmm.gov.tr</t>
+  </si>
+  <si>
+    <t>CUMHURBAŞKANI YARDIMCISI</t>
+  </si>
+  <si>
+    <t>@_cevdetyilmaz</t>
+  </si>
+  <si>
+    <t>TUNÇ</t>
+  </si>
+  <si>
+    <t>ADALET BAKANI</t>
+  </si>
+  <si>
+    <t>@yilmaztunc</t>
+  </si>
+  <si>
+    <t>Mahinur</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÖZDEMİR GÖKTAŞ</t>
+  </si>
+  <si>
+    <t>ozelkalem@aile.gov.tr</t>
+  </si>
+  <si>
+    <t>Aile ve Sosyal Hizmetler Bakanı</t>
+  </si>
+  <si>
+    <t>@Mahi_Nur</t>
+  </si>
+  <si>
+    <t>VEDAT</t>
+  </si>
+  <si>
+    <t>IŞIKHAN</t>
+  </si>
+  <si>
+    <t>ÇALIŞMA VE SOSYAL GÜVENLİK BAKANI</t>
+  </si>
+  <si>
+    <t>@isikhanvedat</t>
+  </si>
+  <si>
+    <t>MEHMET</t>
+  </si>
+  <si>
+    <t>ÖZHASEKİ</t>
+  </si>
+  <si>
+    <t>mehmet.ozhaseki@tbmm.gov.tr</t>
+  </si>
+  <si>
+    <t>ÇEVRE, ŞEHİRCİLİK ve İKLİM DEĞİŞİKLİĞİ BAKANI</t>
+  </si>
+  <si>
+    <t>@mehmetozhaseki</t>
+  </si>
+  <si>
+    <t>Alparslan</t>
+  </si>
+  <si>
+    <t>BAYRAKTAR</t>
+  </si>
+  <si>
+    <t>ozelkalem@enerji.gov.tr</t>
+  </si>
+  <si>
+    <t>ENERJİ VE TABİİ KAYNAKLAR BAKANI</t>
+  </si>
+  <si>
+    <t>@aBayraktar1</t>
+  </si>
+  <si>
+    <t>ŞİMŞEK</t>
+  </si>
+  <si>
+    <t>info@mehmetsimsek.org</t>
+  </si>
+  <si>
+    <t>HAZNE VE MALİYE BAKANI</t>
+  </si>
+  <si>
+    <t>@memetsimsek</t>
+  </si>
+  <si>
+    <t>YUSUF</t>
+  </si>
+  <si>
+    <t>TEKİN</t>
+  </si>
+  <si>
+    <t>ytekin@ybu.edu.tr</t>
+  </si>
+  <si>
+    <t>MİLLİ EĞİTİM BAKANI</t>
+  </si>
+  <si>
+    <t>@Yusuf__Tekin</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>visikhan@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,18 +230,38 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF536471"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -144,15 +284,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -372,25 +516,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.125" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="30.125" customWidth="1"/>
+    <col min="7" max="7" width="29.625" customWidth="1"/>
+    <col min="8" max="8" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,63 +546,238 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{CD1BD774-4A7F-4C4E-A668-A47B2D0B0132}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{0F153F8C-5570-FE42-AB4F-2F12861C644E}"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{CFB2BE20-1175-44D2-812E-44E7E617A294}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bakan_Listesi.xlsx
+++ b/Bakan_Listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak10268\Documents\GitHub\YLSY_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927AB206-BA04-46CE-A344-D3B18327CE3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FBFD01-CDCC-44C8-AD3B-9DAC4538D85F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Isim</t>
   </si>
@@ -48,9 +48,6 @@
     <t>ADANA</t>
   </si>
   <si>
-    <t>Karabay</t>
-  </si>
-  <si>
     <t>aytackarabay@gmail.com</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Eposta</t>
   </si>
   <si>
-    <t>Cokyasar</t>
-  </si>
-  <si>
     <t>tanercokyasar@gmail.com</t>
   </si>
   <si>
@@ -78,15 +72,9 @@
     <t>Yılmaz</t>
   </si>
   <si>
-    <t>Tunc</t>
-  </si>
-  <si>
     <t>yilmaz.tunc@tbmm.gov.tr</t>
   </si>
   <si>
-    <t>CEVDET</t>
-  </si>
-  <si>
     <t xml:space="preserve">YILMAZ </t>
   </si>
   <si>
@@ -111,9 +99,6 @@
     <t>Mahinur</t>
   </si>
   <si>
-    <t xml:space="preserve"> ÖZDEMİR GÖKTAŞ</t>
-  </si>
-  <si>
     <t>ozelkalem@aile.gov.tr</t>
   </si>
   <si>
@@ -123,9 +108,6 @@
     <t>@Mahi_Nur</t>
   </si>
   <si>
-    <t>VEDAT</t>
-  </si>
-  <si>
     <t>IŞIKHAN</t>
   </si>
   <si>
@@ -135,9 +117,6 @@
     <t>@isikhanvedat</t>
   </si>
   <si>
-    <t>MEHMET</t>
-  </si>
-  <si>
     <t>ÖZHASEKİ</t>
   </si>
   <si>
@@ -177,9 +156,6 @@
     <t>@memetsimsek</t>
   </si>
   <si>
-    <t>YUSUF</t>
-  </si>
-  <si>
     <t>TEKİN</t>
   </si>
   <si>
@@ -196,6 +172,36 @@
   </si>
   <si>
     <t>visikhan@gmail.com</t>
+  </si>
+  <si>
+    <t>GÖKTAŞ</t>
+  </si>
+  <si>
+    <t>COKYASAR</t>
+  </si>
+  <si>
+    <t>KARABAY</t>
+  </si>
+  <si>
+    <t>TUNC</t>
+  </si>
+  <si>
+    <t>Cevdet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yilmaz </t>
+  </si>
+  <si>
+    <t>Özdemir</t>
+  </si>
+  <si>
+    <t>Vedat</t>
+  </si>
+  <si>
+    <t>Mehmet</t>
+  </si>
+  <si>
+    <t>Yusuf</t>
   </si>
 </sst>
 </file>
@@ -207,6 +213,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,11 +251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF536471"/>
       <name val="Segoe UI"/>
@@ -255,13 +263,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -284,19 +292,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -520,7 +530,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -546,30 +556,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -577,17 +587,18 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>13</v>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
+      <c r="A3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -595,184 +606,193 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>8</v>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="5" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="H8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="G9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6" t="s">
+      <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="H11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="8" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G10" t="s">
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -780,5 +800,6 @@
     <hyperlink ref="F8" r:id="rId1" xr:uid="{CFB2BE20-1175-44D2-812E-44E7E617A294}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Bakan_Listesi.xlsx
+++ b/Bakan_Listesi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak10268\Documents\GitHub\YLSY_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FBFD01-CDCC-44C8-AD3B-9DAC4538D85F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F587A156-AE1E-4EF4-BD57-9DA507AB9E33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="492" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MVliste_email_komisyon" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Isim</t>
   </si>
@@ -156,18 +156,6 @@
     <t>@memetsimsek</t>
   </si>
   <si>
-    <t>TEKİN</t>
-  </si>
-  <si>
-    <t>ytekin@ybu.edu.tr</t>
-  </si>
-  <si>
-    <t>MİLLİ EĞİTİM BAKANI</t>
-  </si>
-  <si>
-    <t>@Yusuf__Tekin</t>
-  </si>
-  <si>
     <t>Twitter</t>
   </si>
   <si>
@@ -199,9 +187,6 @@
   </si>
   <si>
     <t>Mehmet</t>
-  </si>
-  <si>
-    <t>Yusuf</t>
   </si>
 </sst>
 </file>
@@ -526,26 +511,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.125" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="30.125" customWidth="1"/>
-    <col min="7" max="7" width="29.625" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.09765625" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" customWidth="1"/>
+    <col min="6" max="6" width="30.09765625" customWidth="1"/>
+    <col min="7" max="7" width="29.59765625" customWidth="1"/>
+    <col min="8" max="8" width="24.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,10 +553,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -579,7 +564,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -592,13 +577,13 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -610,13 +595,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -625,9 +610,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
@@ -646,9 +631,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
@@ -667,15 +652,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -690,9 +675,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
@@ -702,7 +687,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -711,9 +696,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="9" t="s">
@@ -732,7 +717,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
         <v>34</v>
       </c>
@@ -753,9 +738,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
@@ -772,27 +757,6 @@
       </c>
       <c r="H11" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
